--- a/biology/Botanique/Mouron_délicat/Mouron_délicat.xlsx
+++ b/biology/Botanique/Mouron_délicat/Mouron_délicat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mouron_d%C3%A9licat</t>
+          <t>Mouron_délicat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anagallis tenella
-Le Mouron délicat ou Mouron grêle ( Lysimachia tenella L. ou Anagallis tenella syn. non admis par ITIS)), est une espèce de plantes à fleurs [1] de la famille des Primulaceae selon la classification classique, ou des Myrsinaceae selon la classification phylogénétique.
+Le Mouron délicat ou Mouron grêle ( Lysimachia tenella L. ou Anagallis tenella syn. non admis par ITIS)), est une espèce de plantes à fleurs  de la famille des Primulaceae selon la classification classique, ou des Myrsinaceae selon la classification phylogénétique.
 C'est une plante herbacée vivace tapissante poussant dans les tourbières acides et alcalines, appréciant les milieux humides et détrempés ouverts, pauvres en éléments nutritifs. Elle fleurit en été et produit des fleurs rose pâle dressées sur un pédoncule de 5 cm environ.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mouron_d%C3%A9licat</t>
+          <t>Mouron_délicat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : rose
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mouron_d%C3%A9licat</t>
+          <t>Mouron_délicat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est protégée dans le Nord-Pas-de-Calais ainsi que dans neuf autres régions de France par l'INPN.
 Elle est menacée par la pollution et l'eutrophisation des eaux ainsi que par le drainage, l'embroussaillement et la fermeture du milieu entraînant la disparition de cette petite plante pionnière peu compétitive.
